--- a/admin/lists/full_student_list.xlsx
+++ b/admin/lists/full_student_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Vorname</t>
   </si>
@@ -30,6 +30,36 @@
   </si>
   <si>
     <t>Thema</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Röckelein</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Berichte schreiben, Vorgangsbeschreibungen</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mustermann</t>
+  </si>
+  <si>
+    <t>ökjkja</t>
+  </si>
+  <si>
+    <t>yölsvösdm</t>
+  </si>
+  <si>
+    <t>Tempus erkennen (Plusquamperfekt, Perfekt, Präteritum, Präsens, Futur)</t>
+  </si>
+  <si>
+    <t>Mia</t>
   </si>
 </sst>
 </file>
@@ -368,7 +398,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,6 +421,516 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/admin/lists/full_student_list.xlsx
+++ b/admin/lists/full_student_list.xlsx
@@ -15,51 +15,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+  <si>
+    <t>Nachname</t>
+  </si>
   <si>
     <t>Vorname</t>
   </si>
   <si>
-    <t>Nachname</t>
-  </si>
-  <si>
     <t>Stufe</t>
   </si>
   <si>
     <t>Klasse</t>
   </si>
   <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Fach</t>
+  </si>
+  <si>
     <t>Thema</t>
   </si>
   <si>
+    <t>Röckelein</t>
+  </si>
+  <si>
     <t>Nina</t>
   </si>
   <si>
-    <t>Röckelein</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Deutsch</t>
+  </si>
+  <si>
     <t>Berichte schreiben, Vorgangsbeschreibungen</t>
   </si>
   <si>
+    <t>Di</t>
+  </si>
+  <si>
+    <t>Grammatik: Aktiv-Passiv, Bestimmung von Akkusativ, Dativ, Genitiv</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>Satzglieder bestimmen: Adverbiale Bestimmung, Attribut…</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Rechtschreibung: Großschreibung, Getrennt o. Zusammen, Satzzeichen setzen</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>Gedichte lesen, Bilder beschreiben</t>
+  </si>
+  <si>
+    <t>Mustermann</t>
+  </si>
+  <si>
     <t>Max</t>
   </si>
   <si>
-    <t>Mustermann</t>
-  </si>
-  <si>
-    <t>ökjkja</t>
-  </si>
-  <si>
-    <t>yölsvösdm</t>
-  </si>
-  <si>
-    <t>Tempus erkennen (Plusquamperfekt, Perfekt, Präteritum, Präsens, Futur)</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Englisch</t>
+  </si>
+  <si>
+    <t>present perfect und simple past im Vergleich (S. 149-151)</t>
+  </si>
+  <si>
+    <t>going to future + will future im Vergleich (S.152-153)</t>
+  </si>
+  <si>
+    <t>Relativsätze (S. 154-155)</t>
+  </si>
+  <si>
+    <t>simple past, past perfect, past progressive, present perfect, present progressive (S.158-159)</t>
+  </si>
+  <si>
+    <t>If-Sätze Typ I+II+III (S.153, 164-165)</t>
   </si>
   <si>
     <t>Mia</t>
+  </si>
+  <si>
+    <t>Blobfisch</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>Sarah</t>
   </si>
 </sst>
 </file>
@@ -398,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +466,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,515 +482,816 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
